--- a/results_normal.xlsx
+++ b/results_normal.xlsx
@@ -458,7 +458,7 @@
         <v>0.9987714987714988</v>
       </c>
       <c r="G2" s="2">
-        <v>0.5006701946258545</v>
+        <v>0.001335120519002279</v>
       </c>
       <c r="H2" s="2">
         <v>86</v>
@@ -481,7 +481,7 @@
         <v>0.5957852957852958</v>
       </c>
       <c r="G3" s="2">
-        <v>1.216495275497436</v>
+        <v>0.003243987401326497</v>
       </c>
       <c r="H3" s="2">
         <v>18</v>
@@ -504,7 +504,7 @@
         <v>0.9987714987714988</v>
       </c>
       <c r="G4" s="2">
-        <v>0.2334036827087403</v>
+        <v>0.0006224098205566407</v>
       </c>
       <c r="H4" s="2">
         <v>59</v>
@@ -527,7 +527,7 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="2">
-        <v>20.30447340011597</v>
+        <v>0.05414526240030926</v>
       </c>
       <c r="H5" s="2">
         <v>43</v>
@@ -550,7 +550,7 @@
         <v>0.8808353808353808</v>
       </c>
       <c r="G6" s="2">
-        <v>0.1126108169555664</v>
+        <v>0.0003002955118815104</v>
       </c>
       <c r="H6" s="2">
         <v>25</v>
@@ -573,7 +573,7 @@
         <v>0.9987714987714988</v>
       </c>
       <c r="G7" s="2">
-        <v>1.330358982086182</v>
+        <v>0.003547623952229818</v>
       </c>
       <c r="H7" s="2">
         <v>172</v>
@@ -632,7 +632,7 @@
         <v>0.9987714987714988</v>
       </c>
       <c r="G2" s="2">
-        <v>0.6111695766448975</v>
+        <v>0.001210236785435441</v>
       </c>
       <c r="H2" s="2">
         <v>209</v>
@@ -655,7 +655,7 @@
         <v>0.9975429975429976</v>
       </c>
       <c r="G3" s="2">
-        <v>1.22906756401062</v>
+        <v>0.002433797156456673</v>
       </c>
       <c r="H3" s="2">
         <v>11</v>
@@ -678,7 +678,7 @@
         <v>0.9987714987714988</v>
       </c>
       <c r="G4" s="2">
-        <v>0.2412478923797607</v>
+        <v>0.0004777185987718034</v>
       </c>
       <c r="H4" s="2">
         <v>59</v>
@@ -701,7 +701,7 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="2">
-        <v>0.9087393283843994</v>
+        <v>0.001799483818582969</v>
       </c>
       <c r="H5" s="2">
         <v>143</v>
@@ -724,7 +724,7 @@
         <v>0.9987714987714988</v>
       </c>
       <c r="G6" s="2">
-        <v>0.1137070655822754</v>
+        <v>0.0002251625061035156</v>
       </c>
       <c r="H6" s="2">
         <v>1760</v>
@@ -747,7 +747,7 @@
         <v>0.9987714987714988</v>
       </c>
       <c r="G7" s="2">
-        <v>1.424035787582398</v>
+        <v>0.002819872846697817</v>
       </c>
       <c r="H7" s="2">
         <v>235</v>
@@ -806,7 +806,7 @@
         <v>0.9987714987714988</v>
       </c>
       <c r="G2" s="2">
-        <v>0.4986424446105957</v>
+        <v>0.001329713185628255</v>
       </c>
       <c r="H2" s="2">
         <v>80</v>
@@ -829,7 +829,7 @@
         <v>0.9963144963144964</v>
       </c>
       <c r="G3" s="2">
-        <v>1.210565328598022</v>
+        <v>0.003228174209594726</v>
       </c>
       <c r="H3" s="2">
         <v>14</v>
@@ -852,7 +852,7 @@
         <v>0.9987714987714988</v>
       </c>
       <c r="G4" s="2">
-        <v>0.2344911098480225</v>
+        <v>0.0006253096262613933</v>
       </c>
       <c r="H4" s="2">
         <v>59</v>
@@ -875,7 +875,7 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="2">
-        <v>22.53912544250489</v>
+        <v>0.06010433451334636</v>
       </c>
       <c r="H5" s="2">
         <v>526</v>
@@ -898,7 +898,7 @@
         <v>0.9987714987714988</v>
       </c>
       <c r="G6" s="2">
-        <v>0.1161465644836426</v>
+        <v>0.0003097241719563802</v>
       </c>
       <c r="H6" s="2">
         <v>2430</v>
@@ -921,7 +921,7 @@
         <v>0.9987714987714988</v>
       </c>
       <c r="G7" s="2">
-        <v>1.42289662361145</v>
+        <v>0.0037943909962972</v>
       </c>
       <c r="H7" s="2">
         <v>999</v>
@@ -980,7 +980,7 @@
         <v>0.9987714987714988</v>
       </c>
       <c r="G2" s="2">
-        <v>0.6084158420562744</v>
+        <v>0.001204783845655989</v>
       </c>
       <c r="H2" s="2">
         <v>314</v>
@@ -1003,7 +1003,7 @@
         <v>0.9987714987714988</v>
       </c>
       <c r="G3" s="2">
-        <v>1.222944259643555</v>
+        <v>0.002421671801274366</v>
       </c>
       <c r="H3" s="2">
         <v>22</v>
@@ -1026,7 +1026,7 @@
         <v>0.9987714987714988</v>
       </c>
       <c r="G4" s="2">
-        <v>0.2497169971466064</v>
+        <v>0.0004944891032606069</v>
       </c>
       <c r="H4" s="2">
         <v>59</v>
@@ -1049,7 +1049,7 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="2">
-        <v>0.8916237354278564</v>
+        <v>0.001765591555302686</v>
       </c>
       <c r="H5" s="2">
         <v>465</v>
@@ -1072,7 +1072,7 @@
         <v>0.9936432936432936</v>
       </c>
       <c r="G6" s="2">
-        <v>0.1193971633911133</v>
+        <v>0.000236430026517056</v>
       </c>
       <c r="H6" s="2">
         <v>926</v>
@@ -1095,7 +1095,7 @@
         <v>0.9987714987714988</v>
       </c>
       <c r="G7" s="2">
-        <v>1.438551902770996</v>
+        <v>0.002848617629249497</v>
       </c>
       <c r="H7" s="2">
         <v>999</v>
@@ -1154,7 +1154,7 @@
         <v>0.9987714987714988</v>
       </c>
       <c r="G2" s="2">
-        <v>0.6092207431793213</v>
+        <v>0.001206377709265983</v>
       </c>
       <c r="H2" s="2">
         <v>133</v>
@@ -1177,7 +1177,7 @@
         <v>0.5</v>
       </c>
       <c r="G3" s="2">
-        <v>1.253509759902954</v>
+        <v>0.002482197544362286</v>
       </c>
       <c r="H3" s="2">
         <v>8</v>
@@ -1200,7 +1200,7 @@
         <v>0.9987714987714988</v>
       </c>
       <c r="G4" s="2">
-        <v>0.2480840682983398</v>
+        <v>0.0004912555807887917</v>
       </c>
       <c r="H4" s="2">
         <v>45</v>
@@ -1223,7 +1223,7 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="2">
-        <v>0.95995831489563</v>
+        <v>0.001900907554248772</v>
       </c>
       <c r="H5" s="2">
         <v>219</v>
@@ -1246,7 +1246,7 @@
         <v>0.984029484029484</v>
       </c>
       <c r="G6" s="2">
-        <v>0.1187829971313477</v>
+        <v>0.0002352138557056389</v>
       </c>
       <c r="H6" s="2">
         <v>211</v>
@@ -1269,7 +1269,7 @@
         <v>0.9987714987714988</v>
       </c>
       <c r="G7" s="2">
-        <v>1.319464445114136</v>
+        <v>0.00261280088141413</v>
       </c>
       <c r="H7" s="2">
         <v>165</v>
@@ -1328,7 +1328,7 @@
         <v>0.9975429975429976</v>
       </c>
       <c r="G2" s="2">
-        <v>0.5021677017211914</v>
+        <v>0.00133911387125651</v>
       </c>
       <c r="H2" s="2">
         <v>222</v>
@@ -1351,7 +1351,7 @@
         <v>0.5758079758079758</v>
       </c>
       <c r="G3" s="2">
-        <v>1.198777675628662</v>
+        <v>0.003196740468343099</v>
       </c>
       <c r="H3" s="2">
         <v>9</v>
@@ -1374,7 +1374,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="2">
-        <v>0.23651123046875</v>
+        <v>0.0006306966145833334</v>
       </c>
       <c r="H4" s="2">
         <v>56</v>
@@ -1397,7 +1397,7 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="2">
-        <v>18.77649140357971</v>
+        <v>0.05007064374287923</v>
       </c>
       <c r="H5" s="2">
         <v>57</v>
@@ -1420,7 +1420,7 @@
         <v>0.8808353808353808</v>
       </c>
       <c r="G6" s="2">
-        <v>0.1033661365509033</v>
+        <v>0.0002756430308024089</v>
       </c>
       <c r="H6" s="2">
         <v>60</v>
@@ -1443,7 +1443,7 @@
         <v>0.8808353808353808</v>
       </c>
       <c r="G7" s="2">
-        <v>1.286123991012573</v>
+        <v>0.003429663976033529</v>
       </c>
       <c r="H7" s="2">
         <v>15</v>
@@ -1502,7 +1502,7 @@
         <v>0.9987714987714988</v>
       </c>
       <c r="G2" s="2">
-        <v>0.6108100414276123</v>
+        <v>0.001209524834510123</v>
       </c>
       <c r="H2" s="2">
         <v>140</v>
@@ -1525,7 +1525,7 @@
         <v>0.5256410256410257</v>
       </c>
       <c r="G3" s="2">
-        <v>1.262073516845703</v>
+        <v>0.002499155478902382</v>
       </c>
       <c r="H3" s="2">
         <v>7</v>
@@ -1548,7 +1548,7 @@
         <v>0.9987714987714988</v>
       </c>
       <c r="G4" s="2">
-        <v>0.241438627243042</v>
+        <v>0.0004780962915703802</v>
       </c>
       <c r="H4" s="2">
         <v>56</v>
@@ -1571,7 +1571,7 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="2">
-        <v>0.9526436328887941</v>
+        <v>0.001886423035423354</v>
       </c>
       <c r="H5" s="2">
         <v>45</v>
@@ -1594,7 +1594,7 @@
         <v>0.9668304668304668</v>
       </c>
       <c r="G6" s="2">
-        <v>0.1171281337738037</v>
+        <v>0.0002319368985619876</v>
       </c>
       <c r="H6" s="2">
         <v>414</v>
@@ -1617,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="2">
-        <v>1.299465656280518</v>
+        <v>0.002573199319367362</v>
       </c>
       <c r="H7" s="2">
         <v>999</v>
@@ -1676,7 +1676,7 @@
         <v>0.9987714987714988</v>
       </c>
       <c r="G2" s="2">
-        <v>0.5000040531158447</v>
+        <v>0.001333344141642253</v>
       </c>
       <c r="H2" s="2">
         <v>188</v>
@@ -1699,7 +1699,7 @@
         <v>0.9987714987714988</v>
       </c>
       <c r="G3" s="2">
-        <v>1.205475091934204</v>
+        <v>0.003214600245157878</v>
       </c>
       <c r="H3" s="2">
         <v>42</v>
@@ -1722,7 +1722,7 @@
         <v>0.9987714987714988</v>
       </c>
       <c r="G4" s="2">
-        <v>0.2381405830383301</v>
+        <v>0.0006350415547688803</v>
       </c>
       <c r="H4" s="2">
         <v>59</v>
@@ -1745,7 +1745,7 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="2">
-        <v>20.94258046150208</v>
+        <v>0.0558468812306722</v>
       </c>
       <c r="H5" s="2">
         <v>729</v>
@@ -1768,7 +1768,7 @@
         <v>0.9987714987714988</v>
       </c>
       <c r="G6" s="2">
-        <v>0.1107470989227295</v>
+        <v>0.0002953255971272786</v>
       </c>
       <c r="H6" s="2">
         <v>2241</v>
@@ -1791,7 +1791,7 @@
         <v>0.9987714987714988</v>
       </c>
       <c r="G7" s="2">
-        <v>1.299379110336304</v>
+        <v>0.00346501096089681</v>
       </c>
       <c r="H7" s="2">
         <v>237</v>
@@ -1850,7 +1850,7 @@
         <v>0.9987714987714988</v>
       </c>
       <c r="G2" s="2">
-        <v>0.6080257892608643</v>
+        <v>0.0012040114638829</v>
       </c>
       <c r="H2" s="2">
         <v>58</v>
@@ -1873,7 +1873,7 @@
         <v>0.9643734643734644</v>
       </c>
       <c r="G3" s="2">
-        <v>1.264096021652222</v>
+        <v>0.00250316043891529</v>
       </c>
       <c r="H3" s="2">
         <v>8</v>
@@ -1896,7 +1896,7 @@
         <v>0.9987714987714988</v>
       </c>
       <c r="G4" s="2">
-        <v>0.2406575679779053</v>
+        <v>0.0004765496395602085</v>
       </c>
       <c r="H4" s="2">
         <v>59</v>
@@ -1919,7 +1919,7 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="2">
-        <v>0.9056875705718994</v>
+        <v>0.001793440733805741</v>
       </c>
       <c r="H5" s="2">
         <v>180</v>
@@ -1942,7 +1942,7 @@
         <v>0.9987714987714988</v>
       </c>
       <c r="G6" s="2">
-        <v>0.1180355548858642</v>
+        <v>0.0002337337720512163</v>
       </c>
       <c r="H6" s="2">
         <v>2226</v>
@@ -1965,7 +1965,7 @@
         <v>0.9987714987714988</v>
       </c>
       <c r="G7" s="2">
-        <v>1.389891147613525</v>
+        <v>0.002752259698244605</v>
       </c>
       <c r="H7" s="2">
         <v>248</v>
@@ -2024,7 +2024,7 @@
         <v>0.9987714987714988</v>
       </c>
       <c r="G2" s="2">
-        <v>0.4988396167755127</v>
+        <v>0.001330238978068034</v>
       </c>
       <c r="H2" s="2">
         <v>109</v>
@@ -2047,7 +2047,7 @@
         <v>0.9987714987714988</v>
       </c>
       <c r="G3" s="2">
-        <v>1.218132734298706</v>
+        <v>0.003248353958129883</v>
       </c>
       <c r="H3" s="2">
         <v>18</v>
@@ -2070,7 +2070,7 @@
         <v>0.9987714987714988</v>
       </c>
       <c r="G4" s="2">
-        <v>0.2345237731933593</v>
+        <v>0.000625396728515625</v>
       </c>
       <c r="H4" s="2">
         <v>59</v>
@@ -2093,7 +2093,7 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="2">
-        <v>20.62518072128296</v>
+        <v>0.05500048192342123</v>
       </c>
       <c r="H5" s="2">
         <v>263</v>
@@ -2116,7 +2116,7 @@
         <v>0.9987714987714988</v>
       </c>
       <c r="G6" s="2">
-        <v>0.1122763156890869</v>
+        <v>0.0002994035085042318</v>
       </c>
       <c r="H6" s="2">
         <v>2229</v>
@@ -2139,7 +2139,7 @@
         <v>0.9987714987714988</v>
       </c>
       <c r="G7" s="2">
-        <v>1.391633749008179</v>
+        <v>0.003711023330688477</v>
       </c>
       <c r="H7" s="2">
         <v>999</v>
@@ -2198,7 +2198,7 @@
         <v>0.9987714987714988</v>
       </c>
       <c r="G2" s="2">
-        <v>0.608144998550415</v>
+        <v>0.00120424752188201</v>
       </c>
       <c r="H2" s="2">
         <v>331</v>
@@ -2221,7 +2221,7 @@
         <v>0.9885150885150884</v>
       </c>
       <c r="G3" s="2">
-        <v>1.23192572593689</v>
+        <v>0.002439456883043346</v>
       </c>
       <c r="H3" s="2">
         <v>12</v>
@@ -2244,7 +2244,7 @@
         <v>0.9987714987714988</v>
       </c>
       <c r="G4" s="2">
-        <v>0.2427160739898681</v>
+        <v>0.0004806258890888478</v>
       </c>
       <c r="H4" s="2">
         <v>59</v>
@@ -2267,7 +2267,7 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="2">
-        <v>0.904524564743042</v>
+        <v>0.00179113775196642</v>
       </c>
       <c r="H5" s="2">
         <v>330</v>
@@ -2290,7 +2290,7 @@
         <v>0.9987714987714988</v>
       </c>
       <c r="G6" s="2">
-        <v>0.1153266429901123</v>
+        <v>0.0002283695900794303</v>
       </c>
       <c r="H6" s="2">
         <v>689</v>
@@ -2313,7 +2313,7 @@
         <v>0.9987714987714988</v>
       </c>
       <c r="G7" s="2">
-        <v>1.409880638122559</v>
+        <v>0.002791842847767443</v>
       </c>
       <c r="H7" s="2">
         <v>349</v>
@@ -2372,7 +2372,7 @@
         <v>0.9987714987714988</v>
       </c>
       <c r="G2" s="2">
-        <v>0.498586893081665</v>
+        <v>0.001329565048217773</v>
       </c>
       <c r="H2" s="2">
         <v>139</v>
@@ -2395,7 +2395,7 @@
         <v>0.5</v>
       </c>
       <c r="G3" s="2">
-        <v>1.220492124557495</v>
+        <v>0.003254645665486654</v>
       </c>
       <c r="H3" s="2">
         <v>8</v>
@@ -2418,7 +2418,7 @@
         <v>0.9987714987714988</v>
       </c>
       <c r="G4" s="2">
-        <v>0.2315959930419922</v>
+        <v>0.0006175893147786458</v>
       </c>
       <c r="H4" s="2">
         <v>59</v>
@@ -2441,7 +2441,7 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="2">
-        <v>20.72549271583557</v>
+        <v>0.05526798057556152</v>
       </c>
       <c r="H5" s="2">
         <v>331</v>
@@ -2464,7 +2464,7 @@
         <v>0.9987714987714988</v>
       </c>
       <c r="G6" s="2">
-        <v>0.1158196926116943</v>
+        <v>0.0003088525136311849</v>
       </c>
       <c r="H6" s="2">
         <v>1305</v>
@@ -2487,7 +2487,7 @@
         <v>0.9987714987714988</v>
       </c>
       <c r="G7" s="2">
-        <v>1.421980381011963</v>
+        <v>0.003791947682698568</v>
       </c>
       <c r="H7" s="2">
         <v>208</v>
